--- a/Administración bdd/Ejecutivo/Planificación/Planificación.xlsx
+++ b/Administración bdd/Ejecutivo/Planificación/Planificación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Itq\ITQ\Administración bdd\Ejecutivo\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD070AE9-1670-4CF5-8027-DAFCC3724F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF90A3B-2D5E-48F4-A5AD-05F953F978F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Presentación de tutor, exposición de Programa de Estudios de Asignatura (PEA), sistema de evaluación y normas del curso. </t>
   </si>
@@ -175,9 +175,6 @@
     <t>Programas en Java mediante If Anidados y bucles complejos.</t>
   </si>
   <si>
-    <t xml:space="preserve">	Introducción a HTML y estructura básica de un documento HTML.</t>
-  </si>
-  <si>
     <t>Etiquetas HTML y atributos básicos.</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Laboratorio: Implementación de una página web con despliegue de widgets HTML</t>
+  </si>
+  <si>
+    <t>Introducción a HTML y estructura básica de un documento HTML.</t>
   </si>
 </sst>
 </file>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -283,6 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,247 +564,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="123" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1">
+        <v>7</v>
+      </c>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="4">
+        <f>SUM(B1:B4)</f>
+        <v>20</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="4">
+        <f>SUM(B6:B9)</f>
+        <v>20</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
-        <f>SUM(D1:D14)</f>
-        <v>30</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
-        <f>SUM(F1:F14)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <f>SUM(B11:B14)</f>
+        <v>24</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <f>SUM(E1:E14)</f>
+        <v>40</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <f>SUM(G1:G14)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD499EBA-6E07-4FCE-8C61-8F5CCAE51E89}">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,7 +998,7 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -958,7 +1012,7 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -972,7 +1026,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -986,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -997,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1005,10 +1059,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1019,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1027,10 +1081,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1041,10 +1095,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>2</v>
